--- a/po_analysis_by_asin/B0D256HQ2H_po_data.xlsx
+++ b/po_analysis_by_asin/B0D256HQ2H_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>30</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>10</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>30</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>16</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>

--- a/po_analysis_by_asin/B0D256HQ2H_po_data.xlsx
+++ b/po_analysis_by_asin/B0D256HQ2H_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -541,7 +542,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -583,6 +584,271 @@
       </c>
       <c r="B6" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.8988364682179716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.81641198635106</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.8220813606906391</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.23446357160307</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.153927426904526</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.93840317422454</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.589071425492728</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.69898527331735</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.449401050527757</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.29020896049013</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.801745925535139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.28419490886729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.493024570166915</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.53868955929081</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.078325287617488</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.72803567411644</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.060439587202504</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.83773523691391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.053303785942787</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.9661093551234</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-6.10410879605315</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.96791145835793</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-6.447804977349681</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14.51856768021199</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-6.738555475947982</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15.15736402992174</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-6.139035056484364</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.67860852554622</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-6.750731875647188</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.57136507048044</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.774466701624316</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15.15066115801454</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D256HQ2H_po_data.xlsx
+++ b/po_analysis_by_asin/B0D256HQ2H_po_data.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,16 +616,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -634,12 +624,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.8988364682179716</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.81641198635106</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,12 +632,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.8220813606906391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.23446357160307</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -662,12 +640,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>-1.153927426904526</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.93840317422454</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -676,12 +648,6 @@
       <c r="B5" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>-2.589071425492728</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.69898527331735</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -690,12 +656,6 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>-1.449401050527757</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19.29020896049013</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -704,12 +664,6 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
-        <v>-2.801745925535139</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19.28419490886729</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -718,12 +672,6 @@
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>-5.493024570166915</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.53868955929081</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -732,12 +680,6 @@
       <c r="B9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>-6.078325287617488</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15.72803567411644</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -746,12 +688,6 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
-        <v>-6.060439587202504</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.83773523691391</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -760,12 +696,6 @@
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>-6.053303785942787</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.9661093551234</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -774,12 +704,6 @@
       <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>-6.10410879605315</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.96791145835793</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -788,12 +712,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>-6.447804977349681</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14.51856768021199</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -802,12 +720,6 @@
       <c r="B14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>-6.738555475947982</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15.15736402992174</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -816,12 +728,6 @@
       <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>-6.139035056484364</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.67860852554622</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -830,12 +736,6 @@
       <c r="B16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>-6.750731875647188</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.57136507048044</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -843,12 +743,6 @@
       </c>
       <c r="B17" t="n">
         <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-7.774466701624316</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15.15066115801454</v>
       </c>
     </row>
   </sheetData>
